--- a/target/classes/inputs.xlsx
+++ b/target/classes/inputs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>get_xml</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>TestCase8</t>
+  </si>
+  <si>
+    <t>TestCase9</t>
+  </si>
+  <si>
+    <t>TestCase10</t>
+  </si>
+  <si>
+    <t>TestCase11</t>
+  </si>
+  <si>
+    <t>TestCase12</t>
+  </si>
+  <si>
+    <t>03.02.2014</t>
+  </si>
+  <si>
+    <t>07.07.2000</t>
+  </si>
+  <si>
+    <t>12.77.2010</t>
+  </si>
+  <si>
+    <t>2016-1-1</t>
   </si>
 </sst>
 </file>
@@ -139,9 +166,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -496,7 +527,7 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -513,15 +544,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -529,50 +560,51 @@
       <c r="E2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42057</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42057</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>78</v>
+        <v>-1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -581,73 +613,145 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
         <v>-129</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
         <v>32768</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
         <v>-5555</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>-45302</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/target/classes/inputs.xlsx
+++ b/target/classes/inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19960" windowHeight="11720" tabRatio="211"/>
+    <workbookView xWindow="11360" yWindow="1680" windowWidth="19960" windowHeight="12880" tabRatio="211"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>12.77.2010</t>
   </si>
   <si>
-    <t>2016-1-1</t>
+    <t>2016-5-5</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -702,8 +702,8 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="b">
-        <v>0</v>
+      <c r="B11" s="1">
+        <v>10000000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -719,8 +719,8 @@
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
+      <c r="B12" s="1">
+        <v>1010101</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
